--- a/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_马丁组.xlsx
+++ b/VersionRecords/Version 3.3.0.1/版本Bug和特性计划及评审表v3.3.0.1_马丁组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andubu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 3.3.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>【房东PC】房态图下期付款日去除</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -889,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1011,12 +1023,20 @@
       <c r="L2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="33"/>
+      <c r="M2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="25">
+        <v>42564</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>52</v>
+      </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
-      <c r="R2" s="34"/>
+      <c r="R2" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="S2" s="37"/>
       <c r="T2" s="38"/>
     </row>
@@ -1055,12 +1075,20 @@
       <c r="L3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="33"/>
+      <c r="M3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="25">
+        <v>42565</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>52</v>
+      </c>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
-      <c r="R3" s="34"/>
+      <c r="R3" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="S3" s="37"/>
       <c r="T3" s="38"/>
     </row>
@@ -1099,12 +1127,20 @@
       <c r="L4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="33"/>
+      <c r="M4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="25">
+        <v>42566</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>52</v>
+      </c>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
-      <c r="R4" s="34"/>
+      <c r="R4" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="S4" s="37"/>
       <c r="T4" s="38"/>
     </row>
